--- a/DataIn/VarExpl/Atributos_Productores.xlsx
+++ b/DataIn/VarExpl/Atributos_Productores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/Modelado_Merlin/GitHub_Datos/Social_Model_Enchugal/DataIn/VarExpl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merlinleunda\Desktop\GitHub_SNA_Jesus\Social_Model_Enchugal\DataIn\VarExpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC10484F619B6CCE5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEB06400-7FB5-448C-9D8A-73CB0AE6A71C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290789B-9B36-49C0-B1EF-1935818A517D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="206">
   <si>
     <t>1_VarExp_Moranca</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Augusto Sumba</t>
+  </si>
+  <si>
+    <t>Area_bolanha</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -690,6 +693,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,28 +982,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
     <col min="7" max="7" width="30.5546875" customWidth="1"/>
     <col min="8" max="8" width="26.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.88671875" customWidth="1"/>
     <col min="10" max="10" width="37.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="33.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>146</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -1064,8 +1076,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="5">
+        <v>1.9217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -1099,8 +1114,11 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="5">
+        <v>1.8387000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
@@ -1134,8 +1152,11 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="5">
+        <v>1.6564000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
@@ -1169,8 +1190,11 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="5">
+        <v>2.6717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
@@ -1204,8 +1228,11 @@
       <c r="K6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="5">
+        <v>2.2281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>152</v>
       </c>
@@ -1239,8 +1266,11 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="5">
+        <v>5.3822999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1274,8 +1304,11 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="5">
+        <v>1.9649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1309,8 +1342,11 @@
       <c r="K9" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="5">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
@@ -1344,8 +1380,11 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <v>2.5262000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1379,8 +1418,11 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <v>2.2589000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1414,8 +1456,11 @@
       <c r="K12" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <v>1.8369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>154</v>
       </c>
@@ -1449,8 +1494,11 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="5">
+        <v>2.3327999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1484,8 +1532,11 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="5">
+        <v>4.2058999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1519,8 +1570,11 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="5">
+        <v>2.0070999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,8 +1608,11 @@
       <c r="K16" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="5">
+        <v>4.0748999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>155</v>
       </c>
@@ -1589,8 +1646,11 @@
       <c r="K17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="5">
+        <v>4.165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1624,8 +1684,11 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="5">
+        <v>2.0427999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1659,8 +1722,11 @@
       <c r="K19" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="5">
+        <v>5.1248000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
@@ -1694,8 +1760,11 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="5">
+        <v>1.3784000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1798,11 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="5">
+        <v>3.4553999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>157</v>
       </c>
@@ -1764,8 +1836,11 @@
       <c r="K22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="5">
+        <v>1.1061999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>158</v>
       </c>
@@ -1799,8 +1874,11 @@
       <c r="K23" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="5">
+        <v>7.4756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1834,8 +1912,11 @@
       <c r="K24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="5">
+        <v>3.2677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,8 +1950,11 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="5">
+        <v>3.5090000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -1904,8 +1988,11 @@
       <c r="K26" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="5">
+        <v>1.6597999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1939,8 +2026,11 @@
       <c r="K27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="5">
+        <v>2.9117000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1974,8 +2064,11 @@
       <c r="K28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="5">
+        <v>5.2338000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>160</v>
       </c>
@@ -2009,8 +2102,11 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="5">
+        <v>2.9832999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,8 +2140,11 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="5">
+        <v>1.7133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -2079,8 +2178,11 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="5">
+        <v>1.9903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2114,8 +2216,11 @@
       <c r="K32" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="5">
+        <v>0.53739999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2149,8 +2254,11 @@
       <c r="K33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="5">
+        <v>0.62529999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>161</v>
       </c>
@@ -2184,8 +2292,11 @@
       <c r="K34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="5">
+        <v>0.65129999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>162</v>
       </c>
@@ -2219,8 +2330,11 @@
       <c r="K35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="5">
+        <v>0.93289999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2254,8 +2368,11 @@
       <c r="K36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="5">
+        <v>0.84729999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2406,11 @@
       <c r="K37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="5">
+        <v>3.7309000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
@@ -2324,8 +2444,11 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="5">
+        <v>0.99440000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -2359,8 +2482,11 @@
       <c r="K39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="5">
+        <v>0.96409999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -2394,8 +2520,11 @@
       <c r="K40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="5">
+        <v>1.5632999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -2429,8 +2558,11 @@
       <c r="K41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="5">
+        <v>1.3449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -2464,8 +2596,11 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="5">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -2499,8 +2634,11 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="5">
+        <v>3.859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2534,8 +2672,11 @@
       <c r="K44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="5">
+        <v>1.524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
@@ -2569,8 +2710,11 @@
       <c r="K45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="5">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
@@ -2604,8 +2748,11 @@
       <c r="K46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="5">
+        <v>2.4902000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -2639,8 +2786,11 @@
       <c r="K47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="5">
+        <v>8.5739000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>167</v>
       </c>
@@ -2674,8 +2824,11 @@
       <c r="K48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="5">
+        <v>1.9176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>168</v>
       </c>
@@ -2709,8 +2862,11 @@
       <c r="K49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="5">
+        <v>6.4687999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -2744,8 +2900,11 @@
       <c r="K50" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="5">
+        <v>6.4955999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>169</v>
       </c>
@@ -2779,8 +2938,11 @@
       <c r="K51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="5">
+        <v>1.0733999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>170</v>
       </c>
@@ -2814,8 +2976,11 @@
       <c r="K52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="5">
+        <v>2.8954</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>171</v>
       </c>
@@ -2849,8 +3014,11 @@
       <c r="K53" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="5">
+        <v>2.4547999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>172</v>
       </c>
@@ -2884,8 +3052,11 @@
       <c r="K54" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="5">
+        <v>3.4868000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -2919,8 +3090,11 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="5">
+        <v>8.4195999999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -2954,8 +3128,11 @@
       <c r="K56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="5">
+        <v>1.9289000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>173</v>
       </c>
@@ -2989,8 +3166,11 @@
       <c r="K57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="5">
+        <v>1.8694000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -3024,8 +3204,11 @@
       <c r="K58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="5">
+        <v>2.4620999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -3059,8 +3242,11 @@
       <c r="K59" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="5">
+        <v>3.6246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>175</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="K60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="5">
+        <v>0.73919999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -3129,8 +3318,11 @@
       <c r="K61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3356,11 @@
       <c r="K62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="5">
+        <v>1.3262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3394,11 @@
       <c r="K63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="5">
+        <v>4.7778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -3234,8 +3432,11 @@
       <c r="K64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="5">
+        <v>0.6905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -3269,8 +3470,11 @@
       <c r="K65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="5">
+        <v>5.5522999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -3304,8 +3508,11 @@
       <c r="K66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="5">
+        <v>1.5541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>177</v>
       </c>
@@ -3339,8 +3546,11 @@
       <c r="K67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="5">
+        <v>1.0301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>178</v>
       </c>
@@ -3374,8 +3584,11 @@
       <c r="K68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="5">
+        <v>3.7814999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>179</v>
       </c>
@@ -3409,8 +3622,11 @@
       <c r="K69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="5">
+        <v>2.1229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -3444,8 +3660,11 @@
       <c r="K70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="5">
+        <v>2.8263000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -3479,8 +3698,11 @@
       <c r="K71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="5">
+        <v>4.7237999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>180</v>
       </c>
@@ -3514,8 +3736,11 @@
       <c r="K72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="5">
+        <v>2.3643999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -3549,8 +3774,11 @@
       <c r="K73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="5">
+        <v>2.2764000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
@@ -3584,8 +3812,11 @@
       <c r="K74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="5">
+        <v>2.2837000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
@@ -3619,8 +3850,11 @@
       <c r="K75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="5">
+        <v>2.9517000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -3654,8 +3888,11 @@
       <c r="K76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="5">
+        <v>0.62070000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>182</v>
       </c>
@@ -3689,8 +3926,11 @@
       <c r="K77" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="5">
+        <v>0.42270000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
@@ -3724,8 +3964,11 @@
       <c r="K78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" s="5">
+        <v>0.75980000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>183</v>
       </c>
@@ -3759,8 +4002,9 @@
       <c r="K79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>184</v>
       </c>
@@ -3794,8 +4038,11 @@
       <c r="K80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="5">
+        <v>0.8397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
@@ -3829,8 +4076,11 @@
       <c r="K81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="5">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
@@ -3864,8 +4114,11 @@
       <c r="K82" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="5">
+        <v>0.8397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
@@ -3899,8 +4152,11 @@
       <c r="K83" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="5">
+        <v>2.2800000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
@@ -3934,8 +4190,11 @@
       <c r="K84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="5">
+        <v>1.5185999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -3969,8 +4228,11 @@
       <c r="K85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="5">
+        <v>1.5525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>185</v>
       </c>
@@ -4004,8 +4266,11 @@
       <c r="K86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="5">
+        <v>1.3852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -4039,8 +4304,11 @@
       <c r="K87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="5">
+        <v>2.5095999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4074,8 +4342,11 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="5">
+        <v>0.36930000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>186</v>
       </c>
@@ -4109,8 +4380,11 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="5">
+        <v>0.50360000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>187</v>
       </c>
@@ -4144,8 +4418,11 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="5">
+        <v>0.69159999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>188</v>
       </c>
@@ -4179,8 +4456,11 @@
       <c r="K91" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="5">
+        <v>1.2076</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
@@ -4214,8 +4494,11 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="5">
+        <v>0.50870000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -4249,8 +4532,11 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="5">
+        <v>1.1486999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
@@ -4284,8 +4570,11 @@
       <c r="K94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="5">
+        <v>0.52210000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>191</v>
       </c>
@@ -4319,8 +4608,11 @@
       <c r="K95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="5">
+        <v>0.2366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
@@ -4354,8 +4646,11 @@
       <c r="K96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="5">
+        <v>0.97240000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4389,8 +4684,11 @@
       <c r="K97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="5">
+        <v>0.28610000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
@@ -4424,8 +4722,11 @@
       <c r="K98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="5">
+        <v>1.5547999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
@@ -4459,8 +4760,11 @@
       <c r="K99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="5">
+        <v>1.9266999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>193</v>
       </c>
@@ -4494,8 +4798,11 @@
       <c r="K100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="5">
+        <v>2.3679000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -4529,8 +4836,11 @@
       <c r="K101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="5">
+        <v>0.86240000000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -4564,8 +4874,11 @@
       <c r="K102" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102" s="5">
+        <v>1.5891000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
@@ -4599,8 +4912,11 @@
       <c r="K103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103" s="5">
+        <v>0.16739999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
@@ -4634,8 +4950,11 @@
       <c r="K104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104" s="5">
+        <v>1.2263999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -4669,8 +4988,11 @@
       <c r="K105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105" s="5">
+        <v>0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -4704,8 +5026,11 @@
       <c r="K106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L106" s="5">
+        <v>1.6048</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>118</v>
       </c>
@@ -4739,8 +5064,11 @@
       <c r="K107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L107" s="5">
+        <v>0.31719999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -4774,8 +5102,11 @@
       <c r="K108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L108" s="5">
+        <v>0.68720000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
@@ -4809,8 +5140,11 @@
       <c r="K109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109" s="5">
+        <v>0.6512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>194</v>
       </c>
@@ -4844,8 +5178,11 @@
       <c r="K110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L110" s="5">
+        <v>1.5344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>195</v>
       </c>
@@ -4879,8 +5216,11 @@
       <c r="K111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111" s="5">
+        <v>3.6463000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
@@ -4914,8 +5254,11 @@
       <c r="K112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112" s="5">
+        <v>2.2872000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>196</v>
       </c>
@@ -4949,8 +5292,11 @@
       <c r="K113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>197</v>
       </c>
@@ -4984,8 +5330,11 @@
       <c r="K114" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114" s="5">
+        <v>1.3353999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
@@ -5019,8 +5368,11 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115" s="5">
+        <v>0.62839999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>198</v>
       </c>
@@ -5054,8 +5406,11 @@
       <c r="K116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116" s="5">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
@@ -5089,8 +5444,11 @@
       <c r="K117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117" s="5">
+        <v>1.1417000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
@@ -5124,8 +5482,11 @@
       <c r="K118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118" s="5">
+        <v>0.26729999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>199</v>
       </c>
@@ -5159,8 +5520,11 @@
       <c r="K119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119" s="5">
+        <v>1.9377</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>200</v>
       </c>
@@ -5194,8 +5558,11 @@
       <c r="K120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120" s="5">
+        <v>0.33189999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>201</v>
       </c>
@@ -5229,8 +5596,11 @@
       <c r="K121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121" s="5">
+        <v>0.52239999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
@@ -5264,8 +5634,11 @@
       <c r="K122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122" s="5">
+        <v>3.3012000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>136</v>
       </c>
@@ -5299,8 +5672,11 @@
       <c r="K123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123" s="5">
+        <v>0.47260000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>202</v>
       </c>
@@ -5334,8 +5710,11 @@
       <c r="K124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124" s="5">
+        <v>1.1252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>203</v>
       </c>
@@ -5369,8 +5748,11 @@
       <c r="K125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125" s="5">
+        <v>0.38109999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>204</v>
       </c>
@@ -5404,8 +5786,11 @@
       <c r="K126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126" s="5">
+        <v>1.2757000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>140</v>
       </c>
@@ -5439,8 +5824,11 @@
       <c r="K127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127" s="5">
+        <v>0.30359999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>141</v>
       </c>
@@ -5474,8 +5862,11 @@
       <c r="K128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128" s="5">
+        <v>0.17710000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>142</v>
       </c>
@@ -5509,8 +5900,11 @@
       <c r="K129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129" s="5">
+        <v>0.7046</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>143</v>
       </c>
@@ -5544,8 +5938,11 @@
       <c r="K130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130" s="5">
+        <v>0.98729999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>144</v>
       </c>
@@ -5578,6 +5975,9 @@
       </c>
       <c r="K131" s="1">
         <v>0</v>
+      </c>
+      <c r="L131" s="5">
+        <v>1.7153999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/DataIn/VarExpl/Atributos_Productores.xlsx
+++ b/DataIn/VarExpl/Atributos_Productores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merlinleunda\Desktop\GitHub_SNA_Jesus\Social_Model_Enchugal\DataIn\VarExpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290789B-9B36-49C0-B1EF-1935818A517D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34112B6C-18C5-43DD-A105-327D2CA18E38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,22 +985,22 @@
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="17.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1044,22 +1044,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1">
         <v>2</v>
@@ -1068,45 +1068,45 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>1.9217</v>
+        <v>2.3643999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1115,94 +1115,94 @@
         <v>0</v>
       </c>
       <c r="L3" s="5">
-        <v>1.8387000000000002</v>
+        <v>0.50870000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="5">
-        <v>1.6564000000000001</v>
+        <v>1.464</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>2.6717</v>
+        <v>1.5185999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1211,30 +1211,30 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>2.2281</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1249,71 +1249,71 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>5.3822999999999999</v>
+        <v>1.9217</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
       <c r="L8" s="5">
-        <v>1.9649999999999999</v>
+        <v>1.5891000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -1325,54 +1325,54 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="L9" s="5">
-        <v>4.3499999999999996</v>
+        <v>1.0301</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1381,50 +1381,50 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <v>2.5262000000000002</v>
+        <v>2.8263000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>2.2589000000000001</v>
+        <v>1.2757000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -1439,36 +1439,36 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12" s="1">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K12" s="1">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="L12" s="5">
-        <v>1.8369</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1477,156 +1477,156 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="1">
-        <v>15</v>
-      </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>2.3327999999999998</v>
+        <v>0.30359999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>4.2058999999999997</v>
+        <v>0.33189999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="5">
-        <v>2.0070999999999999</v>
+        <v>1.3353999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>4.0748999999999995</v>
+        <v>0.16739999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>39</v>
@@ -1638,24 +1638,24 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>4.165</v>
+        <v>2.5095999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1667,33 +1667,33 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>2.0427999999999997</v>
+        <v>0.65129999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1702,124 +1702,124 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>5</v>
       </c>
       <c r="J19" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="K19" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L19" s="5">
-        <v>5.1248000000000005</v>
+        <v>2.4547999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>1.3784000000000001</v>
+        <v>1.1252</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>3.4553999999999996</v>
+        <v>0.62839999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -1828,112 +1828,112 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>1.1061999999999999</v>
+        <v>0.38109999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K23" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L23" s="5">
-        <v>7.4756</v>
+        <v>5.1248000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>55</v>
-      </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>3.2677</v>
+        <v>1.9903</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -1942,62 +1942,62 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>3.5090000000000003</v>
+        <v>3.7814999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L26" s="5">
-        <v>1.6597999999999999</v>
+        <v>1.2076</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
@@ -2018,24 +2018,24 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>2.9117000000000002</v>
+        <v>1.524</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -2044,36 +2044,36 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="5">
-        <v>5.2338000000000005</v>
+        <v>3.4868000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -2085,16 +2085,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1">
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -2103,15 +2103,15 @@
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>2.9832999999999998</v>
+        <v>1.8694000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -2123,36 +2123,36 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>1.7133</v>
+        <v>1.3784000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2161,109 +2161,109 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <v>1.9903</v>
+        <v>0.68720000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>0.53739999999999999</v>
+        <v>1.8387000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
       </c>
       <c r="H33" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>0.62529999999999997</v>
+        <v>2.5262000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -2275,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -2293,65 +2293,65 @@
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>0.65129999999999999</v>
+        <v>2.2764000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <v>0.93289999999999995</v>
+        <v>2.2589000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -2360,24 +2360,24 @@
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>0.84729999999999994</v>
+        <v>0.52210000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -2389,36 +2389,36 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>5</v>
       </c>
       <c r="J37" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K37" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="L37" s="5">
-        <v>3.7309000000000001</v>
+        <v>1.8369</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -2427,33 +2427,33 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>0.99440000000000006</v>
+        <v>0.97240000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2477,62 +2477,62 @@
         <v>2</v>
       </c>
       <c r="J39" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="5">
-        <v>0.96409999999999996</v>
+        <v>2.4620999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G40" s="1">
         <v>2</v>
       </c>
       <c r="H40" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="5">
-        <v>1.5632999999999999</v>
+        <v>2.3327999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G41" s="1">
         <v>2</v>
@@ -2550,65 +2550,65 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <v>1.3449</v>
+        <v>0.52239999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <v>0.877</v>
+        <v>3.5090000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -2617,36 +2617,36 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <v>3.859</v>
+        <v>0.6512</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -2655,36 +2655,36 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>1.524</v>
+        <v>0.75980000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -2693,33 +2693,33 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="I45">
+      <c r="J45" s="1">
         <v>3</v>
       </c>
-      <c r="J45" s="1">
-        <v>7</v>
-      </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="5">
-        <v>2.0350000000000001</v>
+        <v>0.28610000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
@@ -2731,33 +2731,33 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G46" s="1">
         <v>2</v>
       </c>
       <c r="H46" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>2.4902000000000002</v>
+        <v>2.1229</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>11</v>
@@ -2766,36 +2766,36 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
         <v>3</v>
       </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>8.5739000000000001</v>
+        <v>3.4553999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>11</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2825,15 +2825,15 @@
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>1.9176</v>
+        <v>1.1061999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>11</v>
@@ -2845,33 +2845,33 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="1">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="5">
-        <v>6.4687999999999999</v>
+        <v>4.7778</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -2883,71 +2883,71 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G50" s="1">
         <v>2</v>
       </c>
       <c r="H50" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>6.4955999999999996</v>
+        <v>0.93289999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="5">
-        <v>1.0733999999999999</v>
+        <v>3.3012000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
@@ -2959,147 +2959,147 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G52" s="1">
         <v>2</v>
       </c>
       <c r="H52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>2.8954</v>
+        <v>2.2837000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1">
         <v>1</v>
       </c>
       <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" s="1">
         <v>5</v>
       </c>
-      <c r="J53" s="1">
-        <v>10</v>
-      </c>
       <c r="K53" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L53" s="5">
-        <v>2.4547999999999996</v>
+        <v>5.2338000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G54" s="1">
         <v>2</v>
       </c>
       <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" s="1">
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>5</v>
-      </c>
-      <c r="J54" s="1">
-        <v>8</v>
-      </c>
       <c r="K54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L54" s="5">
-        <v>3.4868000000000001</v>
+        <v>1.5525</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
       </c>
       <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1">
         <v>4</v>
       </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55" s="1">
-        <v>7</v>
-      </c>
       <c r="K55" s="1">
         <v>0</v>
       </c>
       <c r="L55" s="5">
-        <v>8.4195999999999991</v>
+        <v>2.4902000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>11</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -3120,62 +3120,62 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
       </c>
       <c r="L56" s="5">
-        <v>1.9289000000000001</v>
+        <v>4.2058999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
         <v>62</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>75</v>
-      </c>
       <c r="G57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L57" s="5">
-        <v>1.8694000000000002</v>
+        <v>1.9377</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>11</v>
@@ -3184,48 +3184,48 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L58" s="5">
-        <v>2.4620999999999995</v>
+        <v>0.53739999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G59" s="1">
         <v>2</v>
@@ -3234,24 +3234,24 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J59" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K59" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L59" s="5">
-        <v>3.6246</v>
+        <v>1.6597999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G60" s="1">
         <v>2</v>
@@ -3275,24 +3275,24 @@
         <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60" s="5">
-        <v>0.73919999999999997</v>
+        <v>0.84729999999999994</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -3301,36 +3301,36 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
       </c>
       <c r="L61" s="5">
-        <v>0.99970000000000003</v>
+        <v>0.31719999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -3339,71 +3339,71 @@
         <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1">
         <v>4</v>
       </c>
-      <c r="J62" s="1">
-        <v>3</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
       <c r="L62" s="5">
-        <v>1.3262</v>
+        <v>0.45450000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G63" s="1">
         <v>2</v>
       </c>
       <c r="H63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="5">
-        <v>4.7778</v>
+        <v>8.4195999999999991</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
@@ -3412,33 +3412,33 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G64" s="1">
         <v>2</v>
       </c>
       <c r="H64" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" s="5">
-        <v>0.6905</v>
+        <v>7.4756</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>67</v>
@@ -3453,51 +3453,51 @@
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J65" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="5">
-        <v>5.5522999999999998</v>
+        <v>0.6905</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -3509,15 +3509,15 @@
         <v>0</v>
       </c>
       <c r="L66" s="5">
-        <v>1.5541</v>
+        <v>1.5547999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -3529,17 +3529,17 @@
         <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
-      <c r="H67" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
       <c r="J67" s="1">
         <v>0</v>
       </c>
@@ -3547,27 +3547,27 @@
         <v>1</v>
       </c>
       <c r="L67" s="5">
-        <v>1.0301</v>
+        <v>8.5739000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G68" s="1">
         <v>2</v>
@@ -3579,42 +3579,42 @@
         <v>4</v>
       </c>
       <c r="J68" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K68" s="1">
         <v>0</v>
       </c>
       <c r="L68" s="5">
-        <v>3.7814999999999999</v>
+        <v>1.9266999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -3623,15 +3623,15 @@
         <v>0</v>
       </c>
       <c r="L69" s="5">
-        <v>2.1229</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>11</v>
@@ -3640,74 +3640,74 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G70" s="1">
         <v>2</v>
       </c>
       <c r="H70" s="1">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J70" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" s="5">
-        <v>2.8263000000000003</v>
+        <v>3.7309000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
       </c>
       <c r="F71" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
       </c>
       <c r="H71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="5">
-        <v>4.7237999999999998</v>
+        <v>1.1486999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G72" s="1">
         <v>2</v>
@@ -3728,24 +3728,24 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="5">
-        <v>2.3643999999999998</v>
+        <v>2.8954</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3757,36 +3757,36 @@
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G73" s="1">
         <v>2</v>
       </c>
       <c r="H73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="5">
-        <v>2.2764000000000002</v>
+        <v>0.62529999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -3795,71 +3795,71 @@
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="5">
-        <v>2.2837000000000005</v>
+        <v>1.5344</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="1">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="1">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K75" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L75" s="5">
-        <v>2.9517000000000002</v>
+        <v>0.8397</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>82</v>
@@ -3871,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
       </c>
       <c r="H76" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
@@ -3889,53 +3889,53 @@
         <v>0</v>
       </c>
       <c r="L76" s="5">
-        <v>0.62070000000000003</v>
+        <v>0.50360000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G77" s="1">
         <v>2</v>
       </c>
       <c r="H77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L77" s="5">
-        <v>0.42270000000000002</v>
+        <v>1.1417000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>82</v>
@@ -3947,36 +3947,36 @@
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78" s="1">
+        <v>11</v>
+      </c>
+      <c r="K78" s="1">
         <v>3</v>
       </c>
-      <c r="J78" s="1">
-        <v>2</v>
-      </c>
-      <c r="K78" s="1">
-        <v>0</v>
-      </c>
       <c r="L78" s="5">
-        <v>0.75980000000000003</v>
+        <v>2.2800000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -3985,31 +3985,33 @@
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
       </c>
       <c r="H79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>1</v>
-      </c>
-      <c r="L79" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>1.9176</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>82</v>
@@ -4021,150 +4023,150 @@
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="1">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1">
         <v>0</v>
       </c>
       <c r="L80" s="5">
-        <v>0.8397</v>
+        <v>0.62070000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G81" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J81" s="1">
         <v>3</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="5">
-        <v>1.464</v>
+        <v>5.5522999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G82" s="1">
         <v>2</v>
       </c>
       <c r="H82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J82" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L82" s="5">
-        <v>0.8397</v>
+        <v>0.17710000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G83" s="1">
         <v>2</v>
       </c>
       <c r="H83" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J83" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L83" s="5">
-        <v>2.2800000000000002</v>
+        <v>0.26729999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -4173,36 +4175,36 @@
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G84" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K84" s="1">
         <v>0</v>
       </c>
       <c r="L84" s="5">
-        <v>1.5185999999999999</v>
+        <v>0.47260000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -4211,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G85" s="1">
         <v>2</v>
@@ -4220,62 +4222,62 @@
         <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
         <v>0</v>
       </c>
       <c r="L85" s="5">
-        <v>1.5525</v>
+        <v>0.99440000000000006</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G86" s="1">
         <v>2</v>
       </c>
       <c r="H86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="5">
-        <v>1.3852</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>82</v>
@@ -4287,36 +4289,36 @@
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G87" s="1">
         <v>2</v>
       </c>
       <c r="H87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>4</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K87" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L87" s="5">
-        <v>2.5095999999999998</v>
+        <v>0.42270000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -4325,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="F88" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>
@@ -4337,24 +4339,24 @@
         <v>2</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="5">
-        <v>0.36930000000000002</v>
+        <v>0.96409999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -4363,16 +4365,16 @@
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
       </c>
       <c r="H89" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" s="1">
         <v>0</v>
@@ -4381,36 +4383,36 @@
         <v>0</v>
       </c>
       <c r="L89" s="5">
-        <v>0.50360000000000005</v>
+        <v>6.4687999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="1">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
@@ -4419,74 +4421,74 @@
         <v>0</v>
       </c>
       <c r="L90" s="5">
-        <v>0.69159999999999999</v>
+        <v>3.6463000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K91" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L91" s="5">
-        <v>1.2076</v>
+        <v>1.5632999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" s="1">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
@@ -4495,18 +4497,18 @@
         <v>0</v>
       </c>
       <c r="L92" s="5">
-        <v>0.50870000000000004</v>
+        <v>0.7046</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -4515,83 +4517,83 @@
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G93" s="1">
         <v>2</v>
       </c>
       <c r="H93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="5">
-        <v>1.1486999999999998</v>
+        <v>1.0733999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G94" s="1">
         <v>2</v>
       </c>
       <c r="H94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="5">
-        <v>0.52210000000000001</v>
+        <v>2.3679000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G95" s="1">
         <v>2</v>
@@ -4600,27 +4602,27 @@
         <v>1</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
         <v>0</v>
       </c>
       <c r="L95" s="5">
-        <v>0.2366</v>
+        <v>1.3449</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -4629,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -4638,45 +4640,45 @@
         <v>1</v>
       </c>
       <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96" s="1">
         <v>4</v>
       </c>
-      <c r="J96" s="1">
-        <v>3</v>
-      </c>
       <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="5">
-        <v>0.97240000000000004</v>
+        <v>1.9649999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="1">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J97" s="1">
         <v>3</v>
@@ -4685,50 +4687,50 @@
         <v>0</v>
       </c>
       <c r="L97" s="5">
-        <v>0.28610000000000002</v>
+        <v>1.7133</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G98" s="1">
         <v>2</v>
       </c>
       <c r="H98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="1">
         <v>0</v>
       </c>
       <c r="L98" s="5">
-        <v>1.5547999999999997</v>
+        <v>2.0070999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>106</v>
@@ -4737,13 +4739,13 @@
         <v>100</v>
       </c>
       <c r="D99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
       </c>
       <c r="F99" s="1">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G99" s="1">
         <v>2</v>
@@ -4752,33 +4754,33 @@
         <v>1</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J99" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" s="1">
         <v>0</v>
       </c>
       <c r="L99" s="5">
-        <v>1.9266999999999999</v>
+        <v>0.86240000000000006</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
         <v>38</v>
@@ -4790,74 +4792,74 @@
         <v>2</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J100" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K100" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L100" s="5">
-        <v>2.3679000000000001</v>
+        <v>4.0748999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="1">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G101" s="1">
         <v>2</v>
       </c>
       <c r="H101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>3</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="5">
-        <v>0.86240000000000006</v>
+        <v>1.3852</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G102" s="1">
         <v>2</v>
@@ -4866,45 +4868,45 @@
         <v>1</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1">
+        <v>7</v>
+      </c>
+      <c r="K102" s="1">
         <v>3</v>
       </c>
-      <c r="K102" s="1">
-        <v>4</v>
-      </c>
       <c r="L102" s="5">
-        <v>1.5891000000000002</v>
+        <v>3.6246</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" s="1">
         <v>0</v>
@@ -4913,36 +4915,36 @@
         <v>0</v>
       </c>
       <c r="L103" s="5">
-        <v>0.16739999999999999</v>
+        <v>1.2263999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
       </c>
       <c r="F104" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G104" s="1">
         <v>2</v>
       </c>
       <c r="H104" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" s="1">
         <v>0</v>
@@ -4951,36 +4953,36 @@
         <v>0</v>
       </c>
       <c r="L104" s="5">
-        <v>1.2263999999999999</v>
+        <v>0.73919999999999997</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H105" s="1">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105" s="1">
         <v>0</v>
@@ -4989,15 +4991,15 @@
         <v>0</v>
       </c>
       <c r="L105" s="5">
-        <v>0.66900000000000004</v>
+        <v>0.36930000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>100</v>
@@ -5009,54 +5011,54 @@
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G106" s="1">
         <v>2</v>
       </c>
       <c r="H106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>3</v>
       </c>
       <c r="J106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="5">
-        <v>1.6048</v>
+        <v>0.98729999999999996</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G107" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" s="1">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1">
         <v>2</v>
@@ -5065,18 +5067,18 @@
         <v>0</v>
       </c>
       <c r="L107" s="5">
-        <v>0.31719999999999998</v>
+        <v>1.7153999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -5085,10 +5087,10 @@
         <v>0</v>
       </c>
       <c r="F108" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G108" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="1">
         <v>1</v>
@@ -5097,24 +5099,24 @@
         <v>2</v>
       </c>
       <c r="J108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="1">
         <v>0</v>
       </c>
       <c r="L108" s="5">
-        <v>0.68720000000000003</v>
+        <v>0.69159999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -5123,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G109" s="1">
         <v>2</v>
@@ -5132,27 +5134,27 @@
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J109" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K109" s="1">
         <v>0</v>
       </c>
       <c r="L109" s="5">
-        <v>0.6512</v>
+        <v>2.6717</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D110" s="1">
         <v>0</v>
@@ -5161,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110" s="1">
         <v>1</v>
@@ -5170,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -5179,68 +5181,68 @@
         <v>0</v>
       </c>
       <c r="L110" s="5">
-        <v>1.5344</v>
+        <v>2.9517000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
       </c>
       <c r="F111" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" s="1">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K111" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L111" s="5">
-        <v>3.6463000000000001</v>
+        <v>2.9117000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
       </c>
       <c r="F112" s="1">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G112" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112" s="1">
         <v>1</v>
@@ -5255,18 +5257,18 @@
         <v>0</v>
       </c>
       <c r="L112" s="5">
-        <v>2.2872000000000003</v>
+        <v>1.9289000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -5275,33 +5277,33 @@
         <v>0</v>
       </c>
       <c r="F113" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
       </c>
       <c r="H113" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K113" s="1">
         <v>0</v>
       </c>
       <c r="L113" s="5">
-        <v>0.25</v>
+        <v>3.859</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>100</v>
@@ -5322,65 +5324,65 @@
         <v>1</v>
       </c>
       <c r="I114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J114" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L114" s="5">
-        <v>1.3353999999999999</v>
+        <v>2.2872000000000003</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
       </c>
       <c r="F115" s="1">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" s="1">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="1">
         <v>0</v>
       </c>
       <c r="L115" s="5">
-        <v>0.62839999999999996</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
@@ -5389,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -5404,59 +5406,57 @@
         <v>2</v>
       </c>
       <c r="K116" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L116" s="5">
-        <v>0.45450000000000002</v>
+        <v>3.2677</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
       </c>
       <c r="F117" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G117" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" s="1">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J117" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K117" s="1">
-        <v>0</v>
-      </c>
-      <c r="L117" s="5">
-        <v>1.1417000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
@@ -5465,45 +5465,45 @@
         <v>0</v>
       </c>
       <c r="F118" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G118" s="1">
         <v>2</v>
       </c>
       <c r="H118" s="1">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J118" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K118" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L118" s="5">
-        <v>0.26729999999999998</v>
+        <v>6.4955999999999996</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" s="1">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G119" s="1">
         <v>2</v>
@@ -5515,33 +5515,33 @@
         <v>5</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K119" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L119" s="5">
-        <v>1.9377</v>
+        <v>4.165</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
       </c>
       <c r="F120" s="1">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G120" s="1">
         <v>2</v>
@@ -5550,27 +5550,27 @@
         <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J120" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K120" s="1">
         <v>0</v>
       </c>
       <c r="L120" s="5">
-        <v>0.33189999999999997</v>
+        <v>0.8397</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="F121" s="1">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G121" s="1">
         <v>2</v>
@@ -5588,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" s="1">
         <v>0</v>
@@ -5597,103 +5597,103 @@
         <v>0</v>
       </c>
       <c r="L121" s="5">
-        <v>0.52239999999999998</v>
+        <v>0.99970000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
       </c>
       <c r="F122" s="1">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G122" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J122" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="5">
-        <v>3.3012000000000001</v>
+        <v>1.5541</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
       </c>
       <c r="F123" s="1">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G123" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H123" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K123" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L123" s="5">
-        <v>0.47260000000000002</v>
+        <v>2.2281</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="1">
         <v>0</v>
       </c>
       <c r="F124" s="1">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G124" s="1">
         <v>2</v>
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J124" s="1">
         <v>2</v>
@@ -5711,15 +5711,15 @@
         <v>0</v>
       </c>
       <c r="L124" s="5">
-        <v>1.1252</v>
+        <v>2.0427999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>100</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G125" s="1">
         <v>2</v>
@@ -5740,36 +5740,36 @@
         <v>1</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125" s="1">
         <v>0</v>
       </c>
       <c r="L125" s="5">
-        <v>0.38109999999999999</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
       </c>
       <c r="F126" s="1">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G126" s="1">
         <v>2</v>
@@ -5781,24 +5781,24 @@
         <v>3</v>
       </c>
       <c r="J126" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K126" s="1">
         <v>0</v>
       </c>
       <c r="L126" s="5">
-        <v>1.2757000000000001</v>
+        <v>1.6048</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -5807,36 +5807,36 @@
         <v>0</v>
       </c>
       <c r="F127" s="1">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G127" s="1">
         <v>2</v>
       </c>
       <c r="H127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>4</v>
       </c>
       <c r="J127" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K127" s="1">
         <v>1</v>
       </c>
       <c r="L127" s="5">
-        <v>0.30359999999999998</v>
+        <v>4.7237999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -5845,36 +5845,36 @@
         <v>0</v>
       </c>
       <c r="F128" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G128" s="1">
         <v>2</v>
       </c>
       <c r="H128" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K128" s="1">
         <v>0</v>
       </c>
       <c r="L128" s="5">
-        <v>0.17710000000000001</v>
+        <v>5.3822999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -5883,74 +5883,74 @@
         <v>0</v>
       </c>
       <c r="F129" s="1">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G129" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="1">
         <v>0</v>
       </c>
       <c r="L129" s="5">
-        <v>0.7046</v>
+        <v>2.9832999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" s="1">
         <v>0</v>
       </c>
       <c r="F130" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G130" s="1">
         <v>2</v>
       </c>
       <c r="H130" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130" s="1">
         <v>3</v>
       </c>
-      <c r="J130" s="1">
-        <v>2</v>
-      </c>
       <c r="K130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130" s="5">
-        <v>0.98729999999999996</v>
+        <v>1.3262</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
@@ -5959,28 +5959,31 @@
         <v>0</v>
       </c>
       <c r="F131" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G131" s="1">
+        <v>2</v>
+      </c>
+      <c r="H131" s="1">
+        <v>4</v>
+      </c>
+      <c r="I131">
         <v>3</v>
       </c>
-      <c r="H131" s="1">
-        <v>1</v>
-      </c>
-      <c r="I131">
-        <v>5</v>
-      </c>
       <c r="J131" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="5">
-        <v>1.7153999999999998</v>
+        <v>2.0350000000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L131">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>